--- a/league_standings/Bundesliga_standing.xlsx
+++ b/league_standings/Bundesliga_standing.xlsx
@@ -612,10 +612,10 @@
         <v>2.17</v>
       </c>
       <c r="M3" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="N3" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="O3" t="n">
         <v>22.1</v>
@@ -789,7 +789,7 @@
         <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="P6" t="n">
         <v>-0.04</v>
@@ -843,10 +843,10 @@
         <v>38.3</v>
       </c>
       <c r="N7" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0.03</v>
@@ -897,13 +897,13 @@
         <v>1.52</v>
       </c>
       <c r="M8" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="N8" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="O8" t="n">
-        <v>-8.9</v>
+        <v>-9</v>
       </c>
       <c r="P8" t="n">
         <v>-0.31</v>
@@ -1239,10 +1239,10 @@
         <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="N14" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="O14" t="n">
         <v>-8.1</v>
@@ -1356,7 +1356,7 @@
         <v>31.6</v>
       </c>
       <c r="N16" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="O16" t="n">
         <v>-6.1</v>
@@ -1524,10 +1524,10 @@
         <v>0.62</v>
       </c>
       <c r="M19" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="N19" t="n">
-        <v>50.3</v>
+        <v>50.4</v>
       </c>
       <c r="O19" t="n">
         <v>-18.3</v>
